--- a/Configurations/TestResults.xlsx
+++ b/Configurations/TestResults.xlsx
@@ -1,60 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jorge\Documents\Universidad\Sistemas Inteligentes\Tareas\Classification-Methods\Configurations\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67EF29E6-EBCD-4275-BE5D-36AACFF4414F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38595" yWindow="2775" windowWidth="14400" windowHeight="7365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7365" windowWidth="14400" xWindow="38595" yWindow="2775"/>
   </bookViews>
   <sheets>
-    <sheet name="CompleteRFC2" sheetId="3" r:id="rId1"/>
+    <sheet name="CompleteRFC2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="CompleteSVM" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>f1_score</t>
-  </si>
-  <si>
-    <t>accuracy</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -77,29 +65,98 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -365,39 +422,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="11.81640625" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
+    <col customWidth="1" max="2" min="2" width="11.81640625"/>
+    <col customWidth="1" max="3" min="3" width="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.98556778949386969</v>
-      </c>
-      <c r="C2">
-        <v>0.98960000000000004</v>
+      <c r="B2" t="n">
+        <v>0.9855677894938697</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9896</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.4816025321822184</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7308</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Configurations/TestResults.xlsx
+++ b/Configurations/TestResults.xlsx
@@ -8,6 +8,10 @@
   <sheets>
     <sheet name="CompleteRFC2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="CompleteSVM" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="CompleteSVM1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="CompleteSVM2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="CompleteSVM3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="CompleteSVM4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -507,4 +511,172 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0459498728659644</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1012</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.4821801076932929</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7312</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.4821801076932929</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7312</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9831150166659732</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9844000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/Configurations/TestResults.xlsx
+++ b/Configurations/TestResults.xlsx
@@ -12,6 +12,7 @@
     <sheet name="CompleteSVM2" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="CompleteSVM3" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="CompleteSVM4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="CompleteNB" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -679,4 +680,46 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/Configurations/TestResults.xlsx
+++ b/Configurations/TestResults.xlsx
@@ -13,6 +13,9 @@
     <sheet name="CompleteSVM3" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="CompleteSVM4" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="CompleteNB" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="ClinicalNB" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="LabNB" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="LabNB1" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -472,7 +475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -503,18 +506,18 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4816025321822184</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.7308</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>0.4444168646735513</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6872</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -545,18 +548,18 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0459498728659644</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1012</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>0.4816025321822184</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7308</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -587,18 +590,18 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4821801076932929</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.7312</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>0.0459498728659644</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1012</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -640,7 +643,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -671,18 +674,18 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9831150166659732</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.9844000000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>0.4821801076932929</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7312</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -713,6 +716,48 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>0.9831150166659732</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9844000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
@@ -722,4 +767,88 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>